--- a/results/oddpub_code_results_manual.xlsx
+++ b/results/oddpub_code_results_manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_programs\dashboard\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253B8497-1C08-4FD5-88E6-5ED0438F80CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34DDA27-38F4-4012-8E4C-B0106E560118}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10200" windowHeight="4590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,12 +19,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">open_code_2023!$A$1:$Q$493</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4639" uniqueCount="1999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4639" uniqueCount="2000">
   <si>
     <t>doi</t>
   </si>
@@ -5690,9 +5689,6 @@
     <t>pdf supplement</t>
   </si>
   <si>
-    <t>web app</t>
-  </si>
-  <si>
     <t>will be made</t>
   </si>
   <si>
@@ -6021,6 +6017,12 @@
   </si>
   <si>
     <t>R,Python,MATLAB</t>
+  </si>
+  <si>
+    <t>also has a web app</t>
+  </si>
+  <si>
+    <t>supplement,github</t>
   </si>
 </sst>
 </file>
@@ -6868,12 +6870,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q493"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M190" sqref="M190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6946,7 +6947,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -6996,7 +6997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -7046,7 +7047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -7146,7 +7147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -7199,7 +7200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -7234,10 +7235,10 @@
         <v>30</v>
       </c>
       <c r="L7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>212</v>
+        <v>1999</v>
       </c>
       <c r="N7" t="s">
         <v>1875</v>
@@ -7355,7 +7356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -7405,7 +7406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -7455,7 +7456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -7505,7 +7506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -7608,7 +7609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -7658,7 +7659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -7699,7 +7700,7 @@
         <v>16</v>
       </c>
       <c r="N16" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="O16" t="s">
         <v>1877</v>
@@ -7708,7 +7709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -7761,7 +7762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -7814,7 +7815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -7855,7 +7856,7 @@
         <v>16</v>
       </c>
       <c r="N19" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="O19" t="s">
         <v>12</v>
@@ -7917,7 +7918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="275.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" ht="232" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -7967,7 +7968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -8017,7 +8018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -8070,7 +8071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -8120,7 +8121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>92</v>
       </c>
@@ -8329,7 +8330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>103</v>
       </c>
@@ -8411,19 +8412,19 @@
         <v>109</v>
       </c>
       <c r="L30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" t="s">
-        <v>16</v>
+        <v>1900</v>
       </c>
       <c r="N30" t="s">
-        <v>12</v>
+        <v>1914</v>
       </c>
       <c r="O30" t="s">
-        <v>12</v>
+        <v>1881</v>
       </c>
       <c r="P30" t="s">
-        <v>1888</v>
+        <v>1998</v>
       </c>
       <c r="Q30" t="b">
         <v>1</v>
@@ -8476,13 +8477,13 @@
         <v>12</v>
       </c>
       <c r="P31" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="Q31" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>114</v>
       </c>
@@ -8523,7 +8524,7 @@
         <v>212</v>
       </c>
       <c r="N32" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="O32" t="s">
         <v>12</v>
@@ -8632,13 +8633,13 @@
         <v>12</v>
       </c>
       <c r="P34" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="Q34" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>121</v>
       </c>
@@ -8735,13 +8736,13 @@
         <v>12</v>
       </c>
       <c r="P36" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>127</v>
       </c>
@@ -8791,7 +8792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>130</v>
       </c>
@@ -8838,13 +8839,13 @@
         <v>12</v>
       </c>
       <c r="P38" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="Q38" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>133</v>
       </c>
@@ -8947,7 +8948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>141</v>
       </c>
@@ -9000,7 +9001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>144</v>
       </c>
@@ -9038,7 +9039,7 @@
         <v>1</v>
       </c>
       <c r="M42" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="N42" t="s">
         <v>1883</v>
@@ -9050,7 +9051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>148</v>
       </c>
@@ -9100,7 +9101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>150</v>
       </c>
@@ -9150,7 +9151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>153</v>
       </c>
@@ -9197,7 +9198,7 @@
         <v>12</v>
       </c>
       <c r="P45" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q45" t="b">
         <v>1</v>
@@ -9250,7 +9251,7 @@
         <v>12</v>
       </c>
       <c r="P46" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="Q46" t="b">
         <v>1</v>
@@ -9362,7 +9363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>164</v>
       </c>
@@ -9459,7 +9460,7 @@
         <v>12</v>
       </c>
       <c r="P50" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q50" t="b">
         <v>1</v>
@@ -9571,7 +9572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>178</v>
       </c>
@@ -9609,10 +9610,10 @@
         <v>1</v>
       </c>
       <c r="M53" t="s">
+        <v>1895</v>
+      </c>
+      <c r="N53" t="s">
         <v>1896</v>
-      </c>
-      <c r="N53" t="s">
-        <v>1897</v>
       </c>
       <c r="O53" t="s">
         <v>12</v>
@@ -9674,7 +9675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>187</v>
       </c>
@@ -9774,7 +9775,7 @@
         <v>12</v>
       </c>
       <c r="P56" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q56" t="b">
         <v>1</v>
@@ -9833,7 +9834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>197</v>
       </c>
@@ -9871,10 +9872,10 @@
         <v>1</v>
       </c>
       <c r="M58" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="N58" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="O58" t="s">
         <v>12</v>
@@ -9883,7 +9884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>202</v>
       </c>
@@ -9980,13 +9981,13 @@
         <v>12</v>
       </c>
       <c r="P60" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="Q60" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>211</v>
       </c>
@@ -10024,7 +10025,7 @@
         <v>1</v>
       </c>
       <c r="M61" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="N61" t="s">
         <v>1883</v>
@@ -10033,7 +10034,7 @@
         <v>12</v>
       </c>
       <c r="P61" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="Q61" t="b">
         <v>1</v>
@@ -10086,13 +10087,13 @@
         <v>12</v>
       </c>
       <c r="P62" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="Q62" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>220</v>
       </c>
@@ -10189,13 +10190,13 @@
         <v>12</v>
       </c>
       <c r="P64" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="Q64" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>229</v>
       </c>
@@ -10245,7 +10246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>233</v>
       </c>
@@ -10286,7 +10287,7 @@
         <v>1879</v>
       </c>
       <c r="N66" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="O66" t="s">
         <v>1881</v>
@@ -10295,7 +10296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>236</v>
       </c>
@@ -10342,13 +10343,13 @@
         <v>12</v>
       </c>
       <c r="P67" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="Q67" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>239</v>
       </c>
@@ -10389,7 +10390,7 @@
         <v>16</v>
       </c>
       <c r="N68" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="O68" t="s">
         <v>12</v>
@@ -10398,7 +10399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>243</v>
       </c>
@@ -10436,7 +10437,7 @@
         <v>1</v>
       </c>
       <c r="M69" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="N69" t="s">
         <v>1875</v>
@@ -10501,7 +10502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>252</v>
       </c>
@@ -10539,7 +10540,7 @@
         <v>1</v>
       </c>
       <c r="M71" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="N71" t="s">
         <v>1875</v>
@@ -10704,7 +10705,7 @@
         <v>12</v>
       </c>
       <c r="P74" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q74" t="b">
         <v>1</v>
@@ -10757,13 +10758,13 @@
         <v>12</v>
       </c>
       <c r="P75" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q75" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>269</v>
       </c>
@@ -10813,7 +10814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>272</v>
       </c>
@@ -10910,13 +10911,13 @@
         <v>12</v>
       </c>
       <c r="P78" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q78" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>278</v>
       </c>
@@ -10963,7 +10964,7 @@
         <v>12</v>
       </c>
       <c r="P79" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="Q79" t="b">
         <v>0</v>
@@ -11016,7 +11017,7 @@
         <v>12</v>
       </c>
       <c r="P80" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q80" t="b">
         <v>1</v>
@@ -11122,13 +11123,13 @@
         <v>12</v>
       </c>
       <c r="P82" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q82" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:17" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>291</v>
       </c>
@@ -11178,7 +11179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>295</v>
       </c>
@@ -11216,7 +11217,7 @@
         <v>1</v>
       </c>
       <c r="M84" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="N84" t="s">
         <v>1875</v>
@@ -11275,13 +11276,13 @@
         <v>12</v>
       </c>
       <c r="P85" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="Q85" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>302</v>
       </c>
@@ -11319,7 +11320,7 @@
         <v>1</v>
       </c>
       <c r="M86" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="N86" t="s">
         <v>1875</v>
@@ -11331,7 +11332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>307</v>
       </c>
@@ -11381,7 +11382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>311</v>
       </c>
@@ -11419,10 +11420,10 @@
         <v>1</v>
       </c>
       <c r="M88" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="N88" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="O88" t="s">
         <v>12</v>
@@ -11431,7 +11432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="203" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" ht="203" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>314</v>
       </c>
@@ -11472,7 +11473,7 @@
         <v>16</v>
       </c>
       <c r="N89" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="O89" t="s">
         <v>12</v>
@@ -11481,7 +11482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>317</v>
       </c>
@@ -11584,7 +11585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>323</v>
       </c>
@@ -11687,7 +11688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>328</v>
       </c>
@@ -11737,7 +11738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>331</v>
       </c>
@@ -11787,7 +11788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>333</v>
       </c>
@@ -11825,10 +11826,10 @@
         <v>1</v>
       </c>
       <c r="M96" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="N96" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="O96" t="s">
         <v>12</v>
@@ -11837,7 +11838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>338</v>
       </c>
@@ -11887,7 +11888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>341</v>
       </c>
@@ -11937,7 +11938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:17" ht="232" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:17" ht="232" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>344</v>
       </c>
@@ -11978,7 +11979,7 @@
         <v>16</v>
       </c>
       <c r="N99" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="O99" t="s">
         <v>12</v>
@@ -11987,7 +11988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>349</v>
       </c>
@@ -12037,7 +12038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>352</v>
       </c>
@@ -12075,7 +12076,7 @@
         <v>1</v>
       </c>
       <c r="M101" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="N101" t="s">
         <v>1880</v>
@@ -12087,7 +12088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="203" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17" ht="203" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>355</v>
       </c>
@@ -12137,7 +12138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>360</v>
       </c>
@@ -12178,7 +12179,7 @@
         <v>1879</v>
       </c>
       <c r="N103" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="O103" t="s">
         <v>12</v>
@@ -12187,7 +12188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>364</v>
       </c>
@@ -12237,7 +12238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:17" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:17" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>367</v>
       </c>
@@ -12278,7 +12279,7 @@
         <v>16</v>
       </c>
       <c r="N105" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="O105" t="s">
         <v>12</v>
@@ -12287,7 +12288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>372</v>
       </c>
@@ -12325,10 +12326,10 @@
         <v>1</v>
       </c>
       <c r="M106" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="N106" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="O106" t="s">
         <v>12</v>
@@ -12384,13 +12385,13 @@
         <v>12</v>
       </c>
       <c r="P107" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="Q107" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:17" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>380</v>
       </c>
@@ -12431,7 +12432,7 @@
         <v>16</v>
       </c>
       <c r="N108" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="O108" t="s">
         <v>12</v>
@@ -12440,7 +12441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>384</v>
       </c>
@@ -12478,7 +12479,7 @@
         <v>1</v>
       </c>
       <c r="M109" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="N109" t="s">
         <v>1880</v>
@@ -12490,7 +12491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>388</v>
       </c>
@@ -12540,7 +12541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>391</v>
       </c>
@@ -12590,7 +12591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>395</v>
       </c>
@@ -12687,7 +12688,7 @@
         <v>12</v>
       </c>
       <c r="P113" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q113" t="b">
         <v>1</v>
@@ -12746,7 +12747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>404</v>
       </c>
@@ -12796,7 +12797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>409</v>
       </c>
@@ -12849,7 +12850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>411</v>
       </c>
@@ -12890,7 +12891,7 @@
         <v>16</v>
       </c>
       <c r="N117" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="O117" t="s">
         <v>12</v>
@@ -12899,7 +12900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>416</v>
       </c>
@@ -12949,7 +12950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>419</v>
       </c>
@@ -12987,7 +12988,7 @@
         <v>1</v>
       </c>
       <c r="M119" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="N119" t="s">
         <v>1875</v>
@@ -12999,7 +13000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>424</v>
       </c>
@@ -13037,16 +13038,16 @@
         <v>1</v>
       </c>
       <c r="M120" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="N120" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="Q120" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>429</v>
       </c>
@@ -13084,16 +13085,16 @@
         <v>1</v>
       </c>
       <c r="M121" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="N121" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="Q121" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>433</v>
       </c>
@@ -13131,19 +13132,19 @@
         <v>1</v>
       </c>
       <c r="M122" t="s">
+        <v>1916</v>
+      </c>
+      <c r="N122" t="s">
+        <v>1914</v>
+      </c>
+      <c r="O122" t="s">
         <v>1917</v>
       </c>
-      <c r="N122" t="s">
-        <v>1915</v>
-      </c>
-      <c r="O122" t="s">
-        <v>1918</v>
-      </c>
       <c r="Q122" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="261" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:17" ht="261" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>438</v>
       </c>
@@ -13184,7 +13185,7 @@
         <v>16</v>
       </c>
       <c r="N123" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="O123" t="s">
         <v>12</v>
@@ -13240,7 +13241,7 @@
         <v>12</v>
       </c>
       <c r="P124" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q124" t="b">
         <v>1</v>
@@ -13299,7 +13300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>448</v>
       </c>
@@ -13337,22 +13338,22 @@
         <v>1</v>
       </c>
       <c r="M126" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="N126" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="O126" t="s">
         <v>12</v>
       </c>
       <c r="P126" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="Q126" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>452</v>
       </c>
@@ -13402,7 +13403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>455</v>
       </c>
@@ -13449,13 +13450,13 @@
         <v>12</v>
       </c>
       <c r="P128" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="Q128" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>459</v>
       </c>
@@ -13508,7 +13509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>462</v>
       </c>
@@ -13558,7 +13559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>464</v>
       </c>
@@ -13608,7 +13609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>466</v>
       </c>
@@ -13646,7 +13647,7 @@
         <v>0</v>
       </c>
       <c r="M132" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="N132" t="s">
         <v>12</v>
@@ -13655,13 +13656,13 @@
         <v>12</v>
       </c>
       <c r="P132" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="Q132" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>468</v>
       </c>
@@ -13711,7 +13712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>471</v>
       </c>
@@ -13752,7 +13753,7 @@
         <v>1879</v>
       </c>
       <c r="N134" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="O134" t="s">
         <v>12</v>
@@ -13761,7 +13762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:17" ht="304.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:17" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>474</v>
       </c>
@@ -13811,7 +13812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>479</v>
       </c>
@@ -13852,7 +13853,7 @@
         <v>16</v>
       </c>
       <c r="N136" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="O136" t="s">
         <v>12</v>
@@ -13861,7 +13862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>481</v>
       </c>
@@ -13911,7 +13912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>483</v>
       </c>
@@ -13961,7 +13962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:17" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:17" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>486</v>
       </c>
@@ -13999,11 +14000,11 @@
         <v>1</v>
       </c>
       <c r="M139" t="s">
+        <v>1923</v>
+      </c>
+      <c r="N139" t="s">
         <v>1924</v>
       </c>
-      <c r="N139" t="s">
-        <v>1925</v>
-      </c>
       <c r="O139" t="s">
         <v>12</v>
       </c>
@@ -14011,7 +14012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:17" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>491</v>
       </c>
@@ -14064,7 +14065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>494</v>
       </c>
@@ -14114,7 +14115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>497</v>
       </c>
@@ -14167,7 +14168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>501</v>
       </c>
@@ -14208,7 +14209,7 @@
         <v>16</v>
       </c>
       <c r="N143" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="O143" t="s">
         <v>12</v>
@@ -14217,7 +14218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:17" ht="304.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:17" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>504</v>
       </c>
@@ -14264,13 +14265,13 @@
         <v>12</v>
       </c>
       <c r="P144" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q144" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:17" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>509</v>
       </c>
@@ -14320,7 +14321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>515</v>
       </c>
@@ -14358,7 +14359,7 @@
         <v>1</v>
       </c>
       <c r="M146" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="N146" t="s">
         <v>1875</v>
@@ -14370,7 +14371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>521</v>
       </c>
@@ -14408,10 +14409,10 @@
         <v>1</v>
       </c>
       <c r="M147" t="s">
-        <v>1901</v>
+        <v>16</v>
       </c>
       <c r="N147" t="s">
-        <v>1912</v>
+        <v>1930</v>
       </c>
       <c r="O147" t="s">
         <v>12</v>
@@ -14420,7 +14421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:17" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:17" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>526</v>
       </c>
@@ -14458,7 +14459,7 @@
         <v>1</v>
       </c>
       <c r="M148" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="N148" t="s">
         <v>1875</v>
@@ -14470,7 +14471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>532</v>
       </c>
@@ -14520,7 +14521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>537</v>
       </c>
@@ -14561,7 +14562,7 @@
         <v>16</v>
       </c>
       <c r="N150" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="O150" t="s">
         <v>1881</v>
@@ -14570,7 +14571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>542</v>
       </c>
@@ -14608,10 +14609,10 @@
         <v>1</v>
       </c>
       <c r="M151" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="N151" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="O151" t="s">
         <v>1881</v>
@@ -14620,7 +14621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:17" ht="348" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:17" ht="348" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>548</v>
       </c>
@@ -14658,10 +14659,10 @@
         <v>1</v>
       </c>
       <c r="M152" t="s">
+        <v>1927</v>
+      </c>
+      <c r="N152" t="s">
         <v>1928</v>
-      </c>
-      <c r="N152" t="s">
-        <v>1929</v>
       </c>
       <c r="O152" t="s">
         <v>1877</v>
@@ -14670,7 +14671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>554</v>
       </c>
@@ -14708,7 +14709,7 @@
         <v>1</v>
       </c>
       <c r="M153" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="N153" t="s">
         <v>1875</v>
@@ -14720,7 +14721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>560</v>
       </c>
@@ -14770,7 +14771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>565</v>
       </c>
@@ -14820,7 +14821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:17" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:17" ht="145" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>571</v>
       </c>
@@ -14861,7 +14862,7 @@
         <v>16</v>
       </c>
       <c r="N156" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="O156" t="s">
         <v>1881</v>
@@ -14870,7 +14871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:17" ht="406" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:17" ht="406" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>577</v>
       </c>
@@ -14908,7 +14909,7 @@
         <v>1</v>
       </c>
       <c r="M157" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="N157" t="s">
         <v>1875</v>
@@ -14920,7 +14921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:17" ht="290" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:17" ht="290" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>583</v>
       </c>
@@ -14958,10 +14959,10 @@
         <v>1</v>
       </c>
       <c r="M158" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="N158" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="O158" t="s">
         <v>12</v>
@@ -15017,13 +15018,13 @@
         <v>12</v>
       </c>
       <c r="P159" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q159" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>595</v>
       </c>
@@ -15073,7 +15074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:17" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:17" ht="145" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>599</v>
       </c>
@@ -15114,7 +15115,7 @@
         <v>16</v>
       </c>
       <c r="N161" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="O161" t="s">
         <v>12</v>
@@ -15123,7 +15124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:17" ht="203" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:17" ht="203" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>604</v>
       </c>
@@ -15176,7 +15177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>609</v>
       </c>
@@ -15214,10 +15215,10 @@
         <v>1</v>
       </c>
       <c r="M163" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="N163" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="O163" t="s">
         <v>1881</v>
@@ -15226,7 +15227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>615</v>
       </c>
@@ -15276,7 +15277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:17" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:17" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>621</v>
       </c>
@@ -15317,7 +15318,7 @@
         <v>16</v>
       </c>
       <c r="N165" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="O165" t="s">
         <v>12</v>
@@ -15326,7 +15327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>626</v>
       </c>
@@ -15364,7 +15365,7 @@
         <v>1</v>
       </c>
       <c r="M166" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="N166" t="s">
         <v>1875</v>
@@ -15376,7 +15377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>632</v>
       </c>
@@ -15417,7 +15418,7 @@
         <v>16</v>
       </c>
       <c r="N167" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="O167" t="s">
         <v>1881</v>
@@ -15473,13 +15474,13 @@
         <v>12</v>
       </c>
       <c r="P168" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="Q168" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>642</v>
       </c>
@@ -15532,7 +15533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>647</v>
       </c>
@@ -15579,13 +15580,13 @@
         <v>12</v>
       </c>
       <c r="P170" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q170" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:17" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:17" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>650</v>
       </c>
@@ -15623,7 +15624,7 @@
         <v>1</v>
       </c>
       <c r="M171" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="N171" t="s">
         <v>1875</v>
@@ -15635,7 +15636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>656</v>
       </c>
@@ -15685,7 +15686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:17" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:17" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>660</v>
       </c>
@@ -15726,7 +15727,7 @@
         <v>16</v>
       </c>
       <c r="N173" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="O173" t="s">
         <v>12</v>
@@ -15735,7 +15736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>665</v>
       </c>
@@ -15785,7 +15786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:17" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>669</v>
       </c>
@@ -15826,7 +15827,7 @@
         <v>16</v>
       </c>
       <c r="N175" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="O175" t="s">
         <v>12</v>
@@ -15882,13 +15883,13 @@
         <v>12</v>
       </c>
       <c r="P176" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q176" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:17" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:17" ht="174" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>679</v>
       </c>
@@ -15926,7 +15927,7 @@
         <v>1</v>
       </c>
       <c r="M177" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="N177" t="s">
         <v>1883</v>
@@ -15938,7 +15939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>685</v>
       </c>
@@ -15976,7 +15977,7 @@
         <v>1</v>
       </c>
       <c r="M178" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="N178" t="s">
         <v>1875</v>
@@ -15988,7 +15989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:17" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:17" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>690</v>
       </c>
@@ -16026,7 +16027,7 @@
         <v>1</v>
       </c>
       <c r="M179" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="N179" t="s">
         <v>1875</v>
@@ -16038,7 +16039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>696</v>
       </c>
@@ -16088,7 +16089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>701</v>
       </c>
@@ -16185,13 +16186,13 @@
         <v>12</v>
       </c>
       <c r="P182" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q182" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>710</v>
       </c>
@@ -16241,7 +16242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>715</v>
       </c>
@@ -16285,13 +16286,13 @@
         <v>1880</v>
       </c>
       <c r="P184" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="Q184" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>719</v>
       </c>
@@ -16335,7 +16336,7 @@
         <v>1880</v>
       </c>
       <c r="P185" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="Q185" t="b">
         <v>0</v>
@@ -16388,13 +16389,13 @@
         <v>12</v>
       </c>
       <c r="P186" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q186" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>729</v>
       </c>
@@ -16432,7 +16433,7 @@
         <v>1</v>
       </c>
       <c r="M187" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="N187" t="s">
         <v>1880</v>
@@ -16444,7 +16445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>734</v>
       </c>
@@ -16494,7 +16495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:17" ht="203" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:17" ht="203" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>739</v>
       </c>
@@ -16582,7 +16583,7 @@
         <v>0</v>
       </c>
       <c r="M190" t="s">
-        <v>12</v>
+        <v>212</v>
       </c>
       <c r="N190" t="s">
         <v>12</v>
@@ -16591,13 +16592,13 @@
         <v>12</v>
       </c>
       <c r="P190" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="Q190" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:17" ht="246.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:17" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>751</v>
       </c>
@@ -16635,7 +16636,7 @@
         <v>1</v>
       </c>
       <c r="M191" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="N191" t="s">
         <v>1880</v>
@@ -16647,7 +16648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>755</v>
       </c>
@@ -16688,7 +16689,7 @@
         <v>16</v>
       </c>
       <c r="N192" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="O192" t="s">
         <v>1881</v>
@@ -16697,7 +16698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>760</v>
       </c>
@@ -16747,7 +16748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>764</v>
       </c>
@@ -16788,7 +16789,7 @@
         <v>16</v>
       </c>
       <c r="N194" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="O194" t="s">
         <v>1881</v>
@@ -16797,7 +16798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>770</v>
       </c>
@@ -16835,10 +16836,10 @@
         <v>1</v>
       </c>
       <c r="M195" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="N195" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="O195" t="s">
         <v>1881</v>
@@ -16847,7 +16848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>776</v>
       </c>
@@ -16888,7 +16889,7 @@
         <v>16</v>
       </c>
       <c r="N196" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="O196" t="s">
         <v>1881</v>
@@ -16897,7 +16898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>781</v>
       </c>
@@ -16935,10 +16936,10 @@
         <v>1</v>
       </c>
       <c r="M197" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="N197" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="O197" t="s">
         <v>12</v>
@@ -16947,7 +16948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:17" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:17" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>787</v>
       </c>
@@ -16988,7 +16989,7 @@
         <v>16</v>
       </c>
       <c r="N198" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="O198" t="s">
         <v>12</v>
@@ -16997,7 +16998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:17" ht="319" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:17" ht="319" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>792</v>
       </c>
@@ -17047,7 +17048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:17" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:17" ht="174" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>798</v>
       </c>
@@ -17097,7 +17098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>803</v>
       </c>
@@ -17135,10 +17136,10 @@
         <v>1</v>
       </c>
       <c r="M201" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="N201" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="O201" t="s">
         <v>12</v>
@@ -17147,7 +17148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>807</v>
       </c>
@@ -17185,7 +17186,7 @@
         <v>1</v>
       </c>
       <c r="M202" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="N202" t="s">
         <v>1875</v>
@@ -17197,7 +17198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>811</v>
       </c>
@@ -17238,7 +17239,7 @@
         <v>16</v>
       </c>
       <c r="N203" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="O203" t="s">
         <v>1881</v>
@@ -17247,7 +17248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>816</v>
       </c>
@@ -17344,13 +17345,13 @@
         <v>12</v>
       </c>
       <c r="P205" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q205" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>827</v>
       </c>
@@ -17391,7 +17392,7 @@
         <v>16</v>
       </c>
       <c r="N206" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="O206" t="s">
         <v>12</v>
@@ -17400,7 +17401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>833</v>
       </c>
@@ -17438,10 +17439,10 @@
         <v>1</v>
       </c>
       <c r="M207" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="N207" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="O207" t="s">
         <v>12</v>
@@ -17497,13 +17498,13 @@
         <v>12</v>
       </c>
       <c r="P208" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q208" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:17" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>844</v>
       </c>
@@ -17544,7 +17545,7 @@
         <v>16</v>
       </c>
       <c r="N209" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="O209" t="s">
         <v>12</v>
@@ -17553,7 +17554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>847</v>
       </c>
@@ -17600,13 +17601,13 @@
         <v>12</v>
       </c>
       <c r="P210" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="Q210" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:17" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:17" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>853</v>
       </c>
@@ -17653,7 +17654,7 @@
         <v>12</v>
       </c>
       <c r="P211" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="Q211" t="b">
         <v>0</v>
@@ -17706,13 +17707,13 @@
         <v>12</v>
       </c>
       <c r="P212" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q212" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:17" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>863</v>
       </c>
@@ -17753,7 +17754,7 @@
         <v>16</v>
       </c>
       <c r="N213" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="O213" t="s">
         <v>12</v>
@@ -17762,7 +17763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>869</v>
       </c>
@@ -17812,7 +17813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>875</v>
       </c>
@@ -17850,10 +17851,10 @@
         <v>1</v>
       </c>
       <c r="M215" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="N215" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="O215" t="s">
         <v>12</v>
@@ -17862,7 +17863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:17" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:17" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>880</v>
       </c>
@@ -17900,10 +17901,10 @@
         <v>1</v>
       </c>
       <c r="M216" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="N216" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="O216" t="s">
         <v>12</v>
@@ -17912,7 +17913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:17" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>885</v>
       </c>
@@ -17962,7 +17963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:17" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:17" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>890</v>
       </c>
@@ -18012,7 +18013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>895</v>
       </c>
@@ -18050,11 +18051,11 @@
         <v>1</v>
       </c>
       <c r="M219" t="s">
+        <v>1942</v>
+      </c>
+      <c r="N219" t="s">
         <v>1943</v>
       </c>
-      <c r="N219" t="s">
-        <v>1944</v>
-      </c>
       <c r="O219" t="s">
         <v>12</v>
       </c>
@@ -18062,7 +18063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:17" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:17" ht="145" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>899</v>
       </c>
@@ -18103,7 +18104,7 @@
         <v>16</v>
       </c>
       <c r="N220" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="O220" t="s">
         <v>1881</v>
@@ -18112,7 +18113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:17" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:17" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>904</v>
       </c>
@@ -18162,7 +18163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>909</v>
       </c>
@@ -18259,13 +18260,13 @@
         <v>12</v>
       </c>
       <c r="P223" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="Q223" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>920</v>
       </c>
@@ -18315,7 +18316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:17" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>925</v>
       </c>
@@ -18353,7 +18354,7 @@
         <v>1</v>
       </c>
       <c r="M225" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="N225" t="s">
         <v>1875</v>
@@ -18365,7 +18366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:17" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>930</v>
       </c>
@@ -18462,13 +18463,13 @@
         <v>12</v>
       </c>
       <c r="P227" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="Q227" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>939</v>
       </c>
@@ -18509,13 +18510,13 @@
         <v>16</v>
       </c>
       <c r="N228" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="O228" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="P228" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="Q228" t="b">
         <v>1</v>
@@ -18568,13 +18569,13 @@
         <v>12</v>
       </c>
       <c r="P229" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="Q229" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:17" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:17" ht="174" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>949</v>
       </c>
@@ -18615,7 +18616,7 @@
         <v>16</v>
       </c>
       <c r="N230" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="O230" t="s">
         <v>1881</v>
@@ -18624,7 +18625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>954</v>
       </c>
@@ -18674,7 +18675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:17" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:17" ht="174" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>959</v>
       </c>
@@ -18724,7 +18725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:17" ht="203" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:17" ht="203" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>965</v>
       </c>
@@ -18765,19 +18766,19 @@
         <v>16</v>
       </c>
       <c r="N233" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="O233" t="s">
         <v>1881</v>
       </c>
       <c r="P233" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="Q233" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>971</v>
       </c>
@@ -18815,7 +18816,7 @@
         <v>1</v>
       </c>
       <c r="M234" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="N234" t="s">
         <v>1880</v>
@@ -18827,7 +18828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>976</v>
       </c>
@@ -18924,13 +18925,13 @@
         <v>12</v>
       </c>
       <c r="P236" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="Q236" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:17" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:17" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>987</v>
       </c>
@@ -18977,13 +18978,13 @@
         <v>12</v>
       </c>
       <c r="P237" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="Q237" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:17" ht="319" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:17" ht="319" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>992</v>
       </c>
@@ -19024,7 +19025,7 @@
         <v>16</v>
       </c>
       <c r="N238" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="O238" t="s">
         <v>12</v>
@@ -19033,7 +19034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>995</v>
       </c>
@@ -19071,7 +19072,7 @@
         <v>1</v>
       </c>
       <c r="M239" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="N239" t="s">
         <v>1880</v>
@@ -19080,7 +19081,7 @@
         <v>1881</v>
       </c>
       <c r="P239" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="Q239" t="b">
         <v>1</v>
@@ -19133,13 +19134,13 @@
         <v>12</v>
       </c>
       <c r="P240" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q240" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>1004</v>
       </c>
@@ -19186,13 +19187,13 @@
         <v>12</v>
       </c>
       <c r="P241" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="Q241" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>1008</v>
       </c>
@@ -19289,13 +19290,13 @@
         <v>12</v>
       </c>
       <c r="P243" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q243" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>1013</v>
       </c>
@@ -19345,7 +19346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:17" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:17" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>1015</v>
       </c>
@@ -19395,7 +19396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>1018</v>
       </c>
@@ -19436,7 +19437,7 @@
         <v>16</v>
       </c>
       <c r="N246" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="O246" t="s">
         <v>12</v>
@@ -19445,7 +19446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>1021</v>
       </c>
@@ -19495,7 +19496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>1023</v>
       </c>
@@ -19545,7 +19546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>1026</v>
       </c>
@@ -19595,7 +19596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>1031</v>
       </c>
@@ -19642,13 +19643,13 @@
         <v>12</v>
       </c>
       <c r="P250" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="Q250" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>1033</v>
       </c>
@@ -19698,7 +19699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>1036</v>
       </c>
@@ -19736,7 +19737,7 @@
         <v>1</v>
       </c>
       <c r="M252" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="N252" t="s">
         <v>1875</v>
@@ -19748,7 +19749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>1040</v>
       </c>
@@ -19795,7 +19796,7 @@
         <v>1881</v>
       </c>
       <c r="P253" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="Q253" t="b">
         <v>1</v>
@@ -19848,13 +19849,13 @@
         <v>12</v>
       </c>
       <c r="P254" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q254" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>1045</v>
       </c>
@@ -20010,7 +20011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:17" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:17" ht="145" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>1053</v>
       </c>
@@ -20051,19 +20052,19 @@
         <v>16</v>
       </c>
       <c r="N258" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="O258" t="s">
         <v>12</v>
       </c>
       <c r="P258" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="Q258" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>1056</v>
       </c>
@@ -20104,13 +20105,13 @@
         <v>16</v>
       </c>
       <c r="N259" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="O259" t="s">
         <v>1881</v>
       </c>
       <c r="P259" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="Q259" t="b">
         <v>1</v>
@@ -20169,7 +20170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:17" ht="304.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:17" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>1066</v>
       </c>
@@ -20210,7 +20211,7 @@
         <v>16</v>
       </c>
       <c r="N261" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="O261" t="s">
         <v>12</v>
@@ -20219,7 +20220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:17" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:17" ht="145" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>1072</v>
       </c>
@@ -20269,7 +20270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:17" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:17" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>1077</v>
       </c>
@@ -20307,7 +20308,7 @@
         <v>1</v>
       </c>
       <c r="M263" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="N263" t="s">
         <v>1875</v>
@@ -20319,7 +20320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>1083</v>
       </c>
@@ -20369,7 +20370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>1087</v>
       </c>
@@ -20410,7 +20411,7 @@
         <v>16</v>
       </c>
       <c r="N265" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="O265" t="s">
         <v>12</v>
@@ -20419,7 +20420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>1092</v>
       </c>
@@ -20457,7 +20458,7 @@
         <v>1</v>
       </c>
       <c r="M266" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="N266" t="s">
         <v>1880</v>
@@ -20469,7 +20470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>1098</v>
       </c>
@@ -20516,13 +20517,13 @@
         <v>12</v>
       </c>
       <c r="P267" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="Q267" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:17" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:17" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>1103</v>
       </c>
@@ -20572,7 +20573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>1107</v>
       </c>
@@ -20622,7 +20623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>1111</v>
       </c>
@@ -20672,7 +20673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>1113</v>
       </c>
@@ -20710,7 +20711,7 @@
         <v>1</v>
       </c>
       <c r="M271" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="N271" t="s">
         <v>1880</v>
@@ -20722,7 +20723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>1116</v>
       </c>
@@ -20772,7 +20773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>1118</v>
       </c>
@@ -20810,7 +20811,7 @@
         <v>1</v>
       </c>
       <c r="M273" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="N273" t="s">
         <v>1875</v>
@@ -20875,7 +20876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>1123</v>
       </c>
@@ -20922,7 +20923,7 @@
         <v>12</v>
       </c>
       <c r="P275" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="Q275" t="b">
         <v>0</v>
@@ -20975,7 +20976,7 @@
         <v>12</v>
       </c>
       <c r="P276" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q276" t="b">
         <v>1</v>
@@ -21028,13 +21029,13 @@
         <v>12</v>
       </c>
       <c r="P277" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q277" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>1130</v>
       </c>
@@ -21084,7 +21085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>1134</v>
       </c>
@@ -21137,7 +21138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>1139</v>
       </c>
@@ -21234,13 +21235,13 @@
         <v>12</v>
       </c>
       <c r="P281" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="Q281" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:17" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:17" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>1144</v>
       </c>
@@ -21343,7 +21344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>1152</v>
       </c>
@@ -21390,7 +21391,7 @@
         <v>12</v>
       </c>
       <c r="P284" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q284" t="b">
         <v>0</v>
@@ -21446,7 +21447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>1156</v>
       </c>
@@ -21496,7 +21497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>1160</v>
       </c>
@@ -21546,7 +21547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>1164</v>
       </c>
@@ -21587,7 +21588,7 @@
         <v>16</v>
       </c>
       <c r="N288" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="O288" t="s">
         <v>1881</v>
@@ -21596,7 +21597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>1168</v>
       </c>
@@ -21634,7 +21635,7 @@
         <v>1</v>
       </c>
       <c r="M289" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="N289" t="s">
         <v>1875</v>
@@ -21693,7 +21694,7 @@
         <v>12</v>
       </c>
       <c r="P290" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q290" t="b">
         <v>1</v>
@@ -21799,7 +21800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>1178</v>
       </c>
@@ -21837,7 +21838,7 @@
         <v>1</v>
       </c>
       <c r="M293" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="N293" t="s">
         <v>1875</v>
@@ -21849,7 +21850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>1181</v>
       </c>
@@ -21899,7 +21900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>1185</v>
       </c>
@@ -21949,7 +21950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:17" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>1188</v>
       </c>
@@ -21999,7 +22000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:17" ht="203" hidden="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:17" ht="203" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>1193</v>
       </c>
@@ -22040,7 +22041,7 @@
         <v>16</v>
       </c>
       <c r="N297" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="O297" t="s">
         <v>12</v>
@@ -22049,7 +22050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:17" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:17" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>1198</v>
       </c>
@@ -22096,7 +22097,7 @@
         <v>12</v>
       </c>
       <c r="P298" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="Q298" t="b">
         <v>0</v>
@@ -22149,7 +22150,7 @@
         <v>12</v>
       </c>
       <c r="P299" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q299" t="b">
         <v>1</v>
@@ -22202,7 +22203,7 @@
         <v>12</v>
       </c>
       <c r="P300" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q300" t="b">
         <v>1</v>
@@ -22255,13 +22256,13 @@
         <v>12</v>
       </c>
       <c r="P301" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q301" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:17" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>1211</v>
       </c>
@@ -22302,7 +22303,7 @@
         <v>16</v>
       </c>
       <c r="N302" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="O302" t="s">
         <v>12</v>
@@ -22311,7 +22312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>1215</v>
       </c>
@@ -22352,7 +22353,7 @@
         <v>16</v>
       </c>
       <c r="N303" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="O303" t="s">
         <v>12</v>
@@ -22414,7 +22415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:17" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:17" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>1220</v>
       </c>
@@ -22461,13 +22462,13 @@
         <v>12</v>
       </c>
       <c r="P305" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="Q305" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>1223</v>
       </c>
@@ -22508,7 +22509,7 @@
         <v>16</v>
       </c>
       <c r="N306" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="O306" t="s">
         <v>12</v>
@@ -22517,7 +22518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>1228</v>
       </c>
@@ -22558,19 +22559,19 @@
         <v>16</v>
       </c>
       <c r="N307" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="O307" t="s">
         <v>1881</v>
       </c>
       <c r="P307" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="Q307" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:17" ht="217.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:17" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>1231</v>
       </c>
@@ -22611,7 +22612,7 @@
         <v>16</v>
       </c>
       <c r="N308" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="O308" t="s">
         <v>12</v>
@@ -22620,7 +22621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:17" ht="261" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:17" ht="261" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>1235</v>
       </c>
@@ -22658,7 +22659,7 @@
         <v>1</v>
       </c>
       <c r="M309" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="N309" t="s">
         <v>1875</v>
@@ -22670,7 +22671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:17" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>1238</v>
       </c>
@@ -22711,7 +22712,7 @@
         <v>16</v>
       </c>
       <c r="N310" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="O310" t="s">
         <v>12</v>
@@ -22720,7 +22721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>1243</v>
       </c>
@@ -22758,10 +22759,10 @@
         <v>1</v>
       </c>
       <c r="M311" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="N311" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="O311" t="s">
         <v>12</v>
@@ -22817,7 +22818,7 @@
         <v>12</v>
       </c>
       <c r="P312" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q312" t="b">
         <v>1</v>
@@ -22870,13 +22871,13 @@
         <v>12</v>
       </c>
       <c r="P313" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q313" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>1251</v>
       </c>
@@ -22982,7 +22983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>1257</v>
       </c>
@@ -23020,7 +23021,7 @@
         <v>1</v>
       </c>
       <c r="M316" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="N316" t="s">
         <v>1875</v>
@@ -23079,13 +23080,13 @@
         <v>12</v>
       </c>
       <c r="P317" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="Q317" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:17" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:17" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>1264</v>
       </c>
@@ -23123,7 +23124,7 @@
         <v>1</v>
       </c>
       <c r="M318" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="N318" t="s">
         <v>1875</v>
@@ -23135,7 +23136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:17" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:17" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>1267</v>
       </c>
@@ -23182,13 +23183,13 @@
         <v>12</v>
       </c>
       <c r="P319" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="Q319" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>1270</v>
       </c>
@@ -23235,13 +23236,13 @@
         <v>12</v>
       </c>
       <c r="P320" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="Q320" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:17" ht="275.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:17" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>1273</v>
       </c>
@@ -23279,7 +23280,7 @@
         <v>1</v>
       </c>
       <c r="M321" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="N321" t="s">
         <v>1875</v>
@@ -23338,13 +23339,13 @@
         <v>12</v>
       </c>
       <c r="P322" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q322" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>1279</v>
       </c>
@@ -23391,13 +23392,13 @@
         <v>12</v>
       </c>
       <c r="P323" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="Q323" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>1284</v>
       </c>
@@ -23438,7 +23439,7 @@
         <v>16</v>
       </c>
       <c r="N324" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="O324" t="s">
         <v>12</v>
@@ -23447,7 +23448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>1286</v>
       </c>
@@ -23485,7 +23486,7 @@
         <v>1</v>
       </c>
       <c r="M325" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="N325" t="s">
         <v>1875</v>
@@ -23497,7 +23498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>1290</v>
       </c>
@@ -23594,13 +23595,13 @@
         <v>12</v>
       </c>
       <c r="P327" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q327" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>1295</v>
       </c>
@@ -23697,13 +23698,13 @@
         <v>12</v>
       </c>
       <c r="P329" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q329" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>1301</v>
       </c>
@@ -23750,13 +23751,13 @@
         <v>12</v>
       </c>
       <c r="P330" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="Q330" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>1305</v>
       </c>
@@ -23797,7 +23798,7 @@
         <v>16</v>
       </c>
       <c r="N331" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="O331" t="s">
         <v>12</v>
@@ -23853,13 +23854,13 @@
         <v>12</v>
       </c>
       <c r="P332" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q332" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>1312</v>
       </c>
@@ -23909,7 +23910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>1316</v>
       </c>
@@ -24006,13 +24007,13 @@
         <v>12</v>
       </c>
       <c r="P335" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q335" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>1323</v>
       </c>
@@ -24053,19 +24054,19 @@
         <v>212</v>
       </c>
       <c r="N336" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="O336" t="s">
         <v>12</v>
       </c>
       <c r="P336" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q336" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:17" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:17" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>1326</v>
       </c>
@@ -24115,7 +24116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>1330</v>
       </c>
@@ -24153,10 +24154,10 @@
         <v>1</v>
       </c>
       <c r="M338" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="N338" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="O338" t="s">
         <v>12</v>
@@ -24165,7 +24166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>1334</v>
       </c>
@@ -24203,10 +24204,10 @@
         <v>1</v>
       </c>
       <c r="M339" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="N339" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="O339" t="s">
         <v>12</v>
@@ -24321,7 +24322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:17" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:17" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>1343</v>
       </c>
@@ -24359,10 +24360,10 @@
         <v>1</v>
       </c>
       <c r="M342" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="N342" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="O342" t="s">
         <v>12</v>
@@ -24418,10 +24419,10 @@
         <v>12</v>
       </c>
       <c r="P343" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="Q343" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:17" ht="58" x14ac:dyDescent="0.35">
@@ -24471,7 +24472,7 @@
         <v>12</v>
       </c>
       <c r="P344" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q344" t="b">
         <v>1</v>
@@ -24524,13 +24525,13 @@
         <v>12</v>
       </c>
       <c r="P345" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q345" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>1358</v>
       </c>
@@ -24568,10 +24569,10 @@
         <v>1</v>
       </c>
       <c r="M346" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="N346" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="O346" t="s">
         <v>12</v>
@@ -24627,13 +24628,13 @@
         <v>12</v>
       </c>
       <c r="P347" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q347" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>1365</v>
       </c>
@@ -24733,13 +24734,13 @@
         <v>12</v>
       </c>
       <c r="P349" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q349" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>1372</v>
       </c>
@@ -24789,7 +24790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>1375</v>
       </c>
@@ -24839,7 +24840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>1379</v>
       </c>
@@ -24877,10 +24878,10 @@
         <v>1</v>
       </c>
       <c r="M352" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="N352" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="O352" t="s">
         <v>1877</v>
@@ -24942,7 +24943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>1389</v>
       </c>
@@ -24983,7 +24984,7 @@
         <v>16</v>
       </c>
       <c r="N354" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="O354" t="s">
         <v>12</v>
@@ -24992,7 +24993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>1392</v>
       </c>
@@ -25042,7 +25043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>1395</v>
       </c>
@@ -25092,7 +25093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>1398</v>
       </c>
@@ -25142,7 +25143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>1402</v>
       </c>
@@ -25180,7 +25181,7 @@
         <v>1</v>
       </c>
       <c r="M358" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="N358" t="s">
         <v>1875</v>
@@ -25192,7 +25193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>1406</v>
       </c>
@@ -25295,7 +25296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>1412</v>
       </c>
@@ -25345,7 +25346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>1415</v>
       </c>
@@ -25386,7 +25387,7 @@
         <v>16</v>
       </c>
       <c r="N362" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="O362" t="s">
         <v>1881</v>
@@ -25395,7 +25396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>1419</v>
       </c>
@@ -25433,7 +25434,7 @@
         <v>1</v>
       </c>
       <c r="M363" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="N363" t="s">
         <v>1880</v>
@@ -25492,7 +25493,7 @@
         <v>12</v>
       </c>
       <c r="P364" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q364" t="b">
         <v>1</v>
@@ -25545,7 +25546,7 @@
         <v>12</v>
       </c>
       <c r="P365" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q365" t="b">
         <v>1</v>
@@ -25598,7 +25599,7 @@
         <v>12</v>
       </c>
       <c r="P366" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q366" t="b">
         <v>1</v>
@@ -25651,13 +25652,13 @@
         <v>12</v>
       </c>
       <c r="P367" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q367" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>1436</v>
       </c>
@@ -25710,7 +25711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:17" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:17" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>1438</v>
       </c>
@@ -25757,13 +25758,13 @@
         <v>12</v>
       </c>
       <c r="P369" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="Q369" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>1444</v>
       </c>
@@ -25813,7 +25814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:17" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>1446</v>
       </c>
@@ -25910,13 +25911,13 @@
         <v>12</v>
       </c>
       <c r="P372" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="Q372" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="373" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>1454</v>
       </c>
@@ -25954,10 +25955,10 @@
         <v>1</v>
       </c>
       <c r="M373" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="N373" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="O373" t="s">
         <v>12</v>
@@ -25966,7 +25967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>1456</v>
       </c>
@@ -26013,7 +26014,7 @@
         <v>12</v>
       </c>
       <c r="P374" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="Q374" t="b">
         <v>0</v>
@@ -26072,7 +26073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>1462</v>
       </c>
@@ -26122,7 +26123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>1464</v>
       </c>
@@ -26160,10 +26161,10 @@
         <v>1</v>
       </c>
       <c r="M377" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="N377" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="O377" t="s">
         <v>12</v>
@@ -26172,7 +26173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>1468</v>
       </c>
@@ -26222,7 +26223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>1472</v>
       </c>
@@ -26272,7 +26273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>1475</v>
       </c>
@@ -26322,7 +26323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>1480</v>
       </c>
@@ -26360,16 +26361,16 @@
         <v>0</v>
       </c>
       <c r="M381" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="N381" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="O381" t="s">
         <v>12</v>
       </c>
       <c r="P381" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="Q381" t="b">
         <v>0</v>
@@ -26475,13 +26476,13 @@
         <v>12</v>
       </c>
       <c r="P383" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="Q383" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:17" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:17" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>1489</v>
       </c>
@@ -26528,13 +26529,13 @@
         <v>12</v>
       </c>
       <c r="P384" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="Q384" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:17" ht="261" hidden="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:17" ht="261" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>1494</v>
       </c>
@@ -26584,7 +26585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:17" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:17" ht="116" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>1498</v>
       </c>
@@ -26622,7 +26623,7 @@
         <v>1</v>
       </c>
       <c r="M386" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="N386" t="s">
         <v>1875</v>
@@ -26681,7 +26682,7 @@
         <v>12</v>
       </c>
       <c r="P387" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q387" t="b">
         <v>1</v>
@@ -26787,7 +26788,7 @@
         <v>12</v>
       </c>
       <c r="P389" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="Q389" t="b">
         <v>1</v>
@@ -26899,7 +26900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>1521</v>
       </c>
@@ -27002,7 +27003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>1528</v>
       </c>
@@ -27040,10 +27041,10 @@
         <v>1</v>
       </c>
       <c r="M394" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="N394" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="O394" t="s">
         <v>12</v>
@@ -27099,7 +27100,7 @@
         <v>12</v>
       </c>
       <c r="P395" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q395" t="b">
         <v>1</v>
@@ -27152,13 +27153,13 @@
         <v>12</v>
       </c>
       <c r="P396" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q396" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>1539</v>
       </c>
@@ -27208,7 +27209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>1543</v>
       </c>
@@ -27305,13 +27306,13 @@
         <v>12</v>
       </c>
       <c r="P399" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q399" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>1549</v>
       </c>
@@ -27349,10 +27350,10 @@
         <v>1</v>
       </c>
       <c r="M400" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="N400" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="O400" t="s">
         <v>1881</v>
@@ -27361,7 +27362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>1554</v>
       </c>
@@ -27402,7 +27403,7 @@
         <v>16</v>
       </c>
       <c r="N401" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="O401" t="s">
         <v>12</v>
@@ -27458,7 +27459,7 @@
         <v>12</v>
       </c>
       <c r="P402" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q402" t="b">
         <v>1</v>
@@ -27511,7 +27512,7 @@
         <v>12</v>
       </c>
       <c r="P403" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q403" t="b">
         <v>1</v>
@@ -27564,7 +27565,7 @@
         <v>12</v>
       </c>
       <c r="P404" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q404" t="b">
         <v>1</v>
@@ -27617,7 +27618,7 @@
         <v>12</v>
       </c>
       <c r="P405" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q405" t="b">
         <v>1</v>
@@ -27670,7 +27671,7 @@
         <v>12</v>
       </c>
       <c r="P406" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q406" t="b">
         <v>1</v>
@@ -27723,7 +27724,7 @@
         <v>12</v>
       </c>
       <c r="P407" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q407" t="b">
         <v>1</v>
@@ -27776,7 +27777,7 @@
         <v>12</v>
       </c>
       <c r="P408" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q408" t="b">
         <v>1</v>
@@ -27829,7 +27830,7 @@
         <v>12</v>
       </c>
       <c r="P409" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q409" t="b">
         <v>1</v>
@@ -27882,13 +27883,13 @@
         <v>12</v>
       </c>
       <c r="P410" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q410" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>1583</v>
       </c>
@@ -27938,7 +27939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>1587</v>
       </c>
@@ -27979,19 +27980,19 @@
         <v>16</v>
       </c>
       <c r="N412" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="O412" t="s">
         <v>12</v>
       </c>
       <c r="P412" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="Q412" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>1590</v>
       </c>
@@ -28032,7 +28033,7 @@
         <v>16</v>
       </c>
       <c r="N413" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="O413" t="s">
         <v>12</v>
@@ -28041,7 +28042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>1594</v>
       </c>
@@ -28091,7 +28092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>1598</v>
       </c>
@@ -28138,13 +28139,13 @@
         <v>12</v>
       </c>
       <c r="P415" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="Q415" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>1602</v>
       </c>
@@ -28185,7 +28186,7 @@
         <v>16</v>
       </c>
       <c r="N416" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="O416" t="s">
         <v>12</v>
@@ -28194,7 +28195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:17" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:17" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>1604</v>
       </c>
@@ -28232,10 +28233,10 @@
         <v>1</v>
       </c>
       <c r="M417" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="N417" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="O417" t="s">
         <v>1881</v>
@@ -28244,7 +28245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>1609</v>
       </c>
@@ -28282,7 +28283,7 @@
         <v>1</v>
       </c>
       <c r="M418" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="N418" t="s">
         <v>1880</v>
@@ -28294,7 +28295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>1614</v>
       </c>
@@ -28332,7 +28333,7 @@
         <v>1</v>
       </c>
       <c r="M419" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="N419" t="s">
         <v>1875</v>
@@ -28344,7 +28345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>1619</v>
       </c>
@@ -28385,7 +28386,7 @@
         <v>16</v>
       </c>
       <c r="N420" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="O420" t="s">
         <v>12</v>
@@ -28394,7 +28395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:17" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:17" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>1622</v>
       </c>
@@ -28444,7 +28445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>1626</v>
       </c>
@@ -28494,7 +28495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>1629</v>
       </c>
@@ -28541,7 +28542,7 @@
         <v>12</v>
       </c>
       <c r="P423" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="Q423" t="b">
         <v>0</v>
@@ -28600,7 +28601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>1636</v>
       </c>
@@ -28641,7 +28642,7 @@
         <v>16</v>
       </c>
       <c r="N425" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="O425" t="s">
         <v>12</v>
@@ -28650,7 +28651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>1641</v>
       </c>
@@ -28688,7 +28689,7 @@
         <v>1</v>
       </c>
       <c r="M426" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="N426" t="s">
         <v>1875</v>
@@ -28700,7 +28701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>1644</v>
       </c>
@@ -28750,7 +28751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>1647</v>
       </c>
@@ -28800,7 +28801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>1651</v>
       </c>
@@ -28841,7 +28842,7 @@
         <v>16</v>
       </c>
       <c r="N429" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="O429" t="s">
         <v>1881</v>
@@ -28850,7 +28851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>1655</v>
       </c>
@@ -28897,7 +28898,7 @@
         <v>12</v>
       </c>
       <c r="P430" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="Q430" t="b">
         <v>1</v>
@@ -28950,7 +28951,7 @@
         <v>12</v>
       </c>
       <c r="P431" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q431" t="b">
         <v>1</v>
@@ -29003,13 +29004,13 @@
         <v>12</v>
       </c>
       <c r="P432" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q432" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>1663</v>
       </c>
@@ -29059,7 +29060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>1668</v>
       </c>
@@ -29100,7 +29101,7 @@
         <v>16</v>
       </c>
       <c r="N434" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="O434" t="s">
         <v>12</v>
@@ -29109,7 +29110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>1671</v>
       </c>
@@ -29159,7 +29160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:17" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:17" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>1675</v>
       </c>
@@ -29200,13 +29201,13 @@
         <v>16</v>
       </c>
       <c r="N436" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="Q436" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>1678</v>
       </c>
@@ -29256,7 +29257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>1683</v>
       </c>
@@ -29306,7 +29307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>1685</v>
       </c>
@@ -29409,7 +29410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>1692</v>
       </c>
@@ -29459,7 +29460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>1695</v>
       </c>
@@ -29500,7 +29501,7 @@
         <v>16</v>
       </c>
       <c r="N442" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="O442" t="s">
         <v>12</v>
@@ -29509,7 +29510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>1698</v>
       </c>
@@ -29556,13 +29557,13 @@
         <v>12</v>
       </c>
       <c r="P443" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q443" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>1701</v>
       </c>
@@ -29603,7 +29604,7 @@
         <v>16</v>
       </c>
       <c r="N444" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="O444" t="s">
         <v>1877</v>
@@ -29612,7 +29613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>1705</v>
       </c>
@@ -29662,7 +29663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>1707</v>
       </c>
@@ -29759,7 +29760,7 @@
         <v>12</v>
       </c>
       <c r="P447" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q447" t="b">
         <v>1</v>
@@ -29812,13 +29813,13 @@
         <v>12</v>
       </c>
       <c r="P448" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q448" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>1717</v>
       </c>
@@ -29859,7 +29860,7 @@
         <v>16</v>
       </c>
       <c r="N449" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="O449" t="s">
         <v>1881</v>
@@ -29915,13 +29916,13 @@
         <v>12</v>
       </c>
       <c r="P450" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q450" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>1723</v>
       </c>
@@ -29962,7 +29963,7 @@
         <v>16</v>
       </c>
       <c r="N451" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="O451" t="s">
         <v>12</v>
@@ -30018,13 +30019,13 @@
         <v>12</v>
       </c>
       <c r="P452" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q452" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>1729</v>
       </c>
@@ -30065,7 +30066,7 @@
         <v>16</v>
       </c>
       <c r="N453" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="O453" t="s">
         <v>12</v>
@@ -30074,7 +30075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>1733</v>
       </c>
@@ -30124,7 +30125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>1736</v>
       </c>
@@ -30174,7 +30175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>1742</v>
       </c>
@@ -30224,7 +30225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>1745</v>
       </c>
@@ -30265,19 +30266,19 @@
         <v>1879</v>
       </c>
       <c r="N457" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="O457" t="s">
         <v>12</v>
       </c>
       <c r="P457" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="Q457" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>1749</v>
       </c>
@@ -30327,7 +30328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>1752</v>
       </c>
@@ -30368,7 +30369,7 @@
         <v>16</v>
       </c>
       <c r="N459" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="O459" t="s">
         <v>12</v>
@@ -30424,7 +30425,7 @@
         <v>12</v>
       </c>
       <c r="P460" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q460" t="b">
         <v>1</v>
@@ -30483,7 +30484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>1761</v>
       </c>
@@ -30524,7 +30525,7 @@
         <v>16</v>
       </c>
       <c r="N462" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="O462" t="s">
         <v>12</v>
@@ -30533,7 +30534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>1765</v>
       </c>
@@ -30583,7 +30584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>1769</v>
       </c>
@@ -30680,7 +30681,7 @@
         <v>12</v>
       </c>
       <c r="P465" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q465" t="b">
         <v>1</v>
@@ -30733,7 +30734,7 @@
         <v>12</v>
       </c>
       <c r="P466" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q466" t="b">
         <v>1</v>
@@ -30786,7 +30787,7 @@
         <v>12</v>
       </c>
       <c r="P467" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q467" t="b">
         <v>1</v>
@@ -30839,13 +30840,13 @@
         <v>12</v>
       </c>
       <c r="P468" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q468" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:17" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>1784</v>
       </c>
@@ -30898,7 +30899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>1788</v>
       </c>
@@ -30948,7 +30949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>1792</v>
       </c>
@@ -30989,7 +30990,7 @@
         <v>16</v>
       </c>
       <c r="N471" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="O471" t="s">
         <v>12</v>
@@ -30998,7 +30999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:17" ht="232" hidden="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:17" ht="232" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>1796</v>
       </c>
@@ -31048,7 +31049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>1799</v>
       </c>
@@ -31145,13 +31146,13 @@
         <v>12</v>
       </c>
       <c r="P474" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q474" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>1805</v>
       </c>
@@ -31357,7 +31358,7 @@
         <v>12</v>
       </c>
       <c r="P478" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q478" t="b">
         <v>1</v>
@@ -31463,7 +31464,7 @@
         <v>12</v>
       </c>
       <c r="P480" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q480" t="b">
         <v>1</v>
@@ -31516,7 +31517,7 @@
         <v>12</v>
       </c>
       <c r="P481" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q481" t="b">
         <v>1</v>
@@ -31569,13 +31570,13 @@
         <v>12</v>
       </c>
       <c r="P482" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="Q482" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>1832</v>
       </c>
@@ -31625,7 +31626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>1835</v>
       </c>
@@ -31675,7 +31676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>1837</v>
       </c>
@@ -31713,7 +31714,7 @@
         <v>1</v>
       </c>
       <c r="M485" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="N485" t="s">
         <v>1875</v>
@@ -31725,7 +31726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:17" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:17" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>1840</v>
       </c>
@@ -31763,7 +31764,7 @@
         <v>1</v>
       </c>
       <c r="M486" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="N486" t="s">
         <v>1880</v>
@@ -31775,7 +31776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:17" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>1843</v>
       </c>
@@ -31813,7 +31814,7 @@
         <v>1</v>
       </c>
       <c r="M487" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="N487" t="s">
         <v>1880</v>
@@ -31825,7 +31826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:17" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:17" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>1847</v>
       </c>
@@ -31863,10 +31864,10 @@
         <v>1</v>
       </c>
       <c r="M488" t="s">
+        <v>1996</v>
+      </c>
+      <c r="N488" t="s">
         <v>1997</v>
-      </c>
-      <c r="N488" t="s">
-        <v>1998</v>
       </c>
       <c r="O488" t="s">
         <v>1881</v>
@@ -31875,7 +31876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:17" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:17" ht="174" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>1850</v>
       </c>
@@ -31913,7 +31914,7 @@
         <v>1</v>
       </c>
       <c r="M489" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="N489" t="s">
         <v>1880</v>
@@ -31925,7 +31926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:17" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>1853</v>
       </c>
@@ -31963,10 +31964,10 @@
         <v>1</v>
       </c>
       <c r="M490" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="N490" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="O490" t="s">
         <v>12</v>
@@ -32022,13 +32023,13 @@
         <v>12</v>
       </c>
       <c r="P491" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="Q491" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:17" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>1860</v>
       </c>
@@ -32069,13 +32070,13 @@
         <v>1879</v>
       </c>
       <c r="N492" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="Q492" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:17" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:17" ht="87" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>1865</v>
       </c>
@@ -32122,54 +32123,20 @@
         <v>12</v>
       </c>
       <c r="P493" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="Q493" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q493" xr:uid="{0FE4C44C-946C-4B4F-A86A-86C4D0368353}">
-    <filterColumn colId="11">
-      <filters>
-        <filter val="FALSE"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="12">
-      <filters>
-        <filter val="github"/>
-        <filter val="NA"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="16">
-      <filters>
-        <filter val="TRUE"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Q493" xr:uid="{03FE5BF2-E106-4521-AD79-E1388E264F75}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6ef97657-a447-4fed-9327-4c9e479cb2d0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CB45688601F3FA4E8D7EDE35AF5DB9FB" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8f8d86437072efbc6abce522e0be98e9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="205a8cd1-719b-4911-a14c-43aa26314a40" xmlns:ns4="6ef97657-a447-4fed-9327-4c9e479cb2d0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="72d52e5a166a505802533dab526a333d" ns3:_="" ns4:_="">
     <xsd:import namespace="205a8cd1-719b-4911-a14c-43aa26314a40"/>
@@ -32402,32 +32369,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46922E28-ACD4-403D-8ADE-64448F2A978C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6ef97657-a447-4fed-9327-4c9e479cb2d0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="205a8cd1-719b-4911-a14c-43aa26314a40"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCDC39AA-92D2-4469-BD4F-047A9423A991}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6ef97657-a447-4fed-9327-4c9e479cb2d0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AAFD5CC-2F12-4BD4-95B6-C6EFB6956F6E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32444,4 +32403,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCDC39AA-92D2-4469-BD4F-047A9423A991}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46922E28-ACD4-403D-8ADE-64448F2A978C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6ef97657-a447-4fed-9327-4c9e479cb2d0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="205a8cd1-719b-4911-a14c-43aa26314a40"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>